--- a/data/trans_bre/P1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.163047176033414</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9477715416214537</v>
+        <v>0.9477715416214542</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1144186354874382</v>
+        <v>-0.006057770062578073</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.994363331617781</v>
+        <v>4.860899838328423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.369965100581473</v>
+        <v>3.859309437790436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.766273643256231</v>
+        <v>2.84774435263364</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03296909428834252</v>
+        <v>-0.02769871816554857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5974660455505822</v>
+        <v>0.5983435324856702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4356033075090342</v>
+        <v>0.5272625574504758</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3728469525931509</v>
+        <v>0.3775522534538934</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.631394202831015</v>
+        <v>5.035620797537643</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.43464705973543</v>
+        <v>11.32661862426341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.980492078082532</v>
+        <v>10.01299616938483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.592296013335951</v>
+        <v>7.767037063608988</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.366582176914807</v>
+        <v>1.499942778303417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.011792870678802</v>
+        <v>2.1280102192072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.16854357282477</v>
+        <v>2.300514131896753</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.760045247322631</v>
+        <v>1.87093287545206</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.122048433605116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.834138842480003</v>
+        <v>5.834138842480005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2701504045526116</v>
@@ -749,7 +749,7 @@
         <v>1.433074104597875</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.106124804835875</v>
+        <v>1.106124804835876</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6920511042637763</v>
+        <v>-0.624856258092669</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.589381774687112</v>
+        <v>4.531120169053121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.527779916514614</v>
+        <v>4.769725196522332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.668469682020027</v>
+        <v>3.573536082879922</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1128430908046086</v>
+        <v>-0.09710322336514801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4799182625860624</v>
+        <v>0.4656257456558611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6944513078958647</v>
+        <v>0.7721611283448182</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5167946675419817</v>
+        <v>0.5496524114017874</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.079822658900569</v>
+        <v>3.916525820031207</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.61436760348723</v>
+        <v>10.37531363248344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.728694883691084</v>
+        <v>9.890023972708022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.901742297617326</v>
+        <v>8.059797489696621</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8239587594921683</v>
+        <v>0.8317558811363389</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.561215083124762</v>
+        <v>1.552106073720984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.310030416199262</v>
+        <v>2.429119973649791</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.826501525014259</v>
+        <v>1.913161806694804</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.116905150053999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.934847366996354</v>
+        <v>3.934847366996351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8216939436572245</v>
@@ -849,7 +849,7 @@
         <v>1.200720331517413</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4876405091089511</v>
+        <v>0.4876405091089507</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.394709281617317</v>
+        <v>2.889538593854466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.652110347569434</v>
+        <v>4.827313777832333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.093158142286849</v>
+        <v>3.862334916974467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8502538682555247</v>
+        <v>0.9304508666521858</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2631628190821166</v>
+        <v>0.3079413132786689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6045740006629727</v>
+        <v>0.6310350797796156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.549151610537903</v>
+        <v>0.5218241370116421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09037371343101791</v>
+        <v>0.08859593117981755</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.15865158084936</v>
+        <v>9.083856470926278</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.91212863962971</v>
+        <v>10.76649436305423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.37508395513476</v>
+        <v>10.02692852837408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.891858117861657</v>
+        <v>7.059834672783779</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.56660284046277</v>
+        <v>1.54151798618697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.518191110877095</v>
+        <v>2.577086993858801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.339740533373933</v>
+        <v>2.248338938932715</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.073625321443741</v>
+        <v>1.116716530894996</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.287254861121493</v>
+        <v>1.392446012017445</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.917359311200707</v>
+        <v>4.147376442749481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8824770806357473</v>
+        <v>1.337610623957359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.82891482806038</v>
+        <v>5.070183282865549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1495632813428829</v>
+        <v>0.1800972884861286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4348099298646048</v>
+        <v>0.4487178617142388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0947116172327563</v>
+        <v>0.1249922822018097</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6820014309215066</v>
+        <v>0.7359664691452541</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.350295549905145</v>
+        <v>6.344862225665801</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.565769436160334</v>
+        <v>9.715930403901764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.523971461173105</v>
+        <v>6.446088009081248</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.518690523620773</v>
+        <v>9.483652875940681</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.222338001906963</v>
+        <v>1.220009374960122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.537772798951783</v>
+        <v>1.551990348173535</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.00154196390828</v>
+        <v>1.012200583762066</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.073855374731878</v>
+        <v>2.182750862691318</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.126876153153074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.699618313141069</v>
+        <v>5.699618313141068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5567431162707636</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.183336130080215</v>
+        <v>2.00772480703452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.042378430622073</v>
+        <v>5.864049192570617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.724857498988089</v>
+        <v>4.726626569405674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.472691193526528</v>
+        <v>4.385407143818795</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3255947356206387</v>
+        <v>0.2976245173389047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7544917176929568</v>
+        <v>0.771630208357274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6857274805813939</v>
+        <v>0.7060583818495049</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6870567085523334</v>
+        <v>0.6404044797219051</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.706651533429194</v>
+        <v>4.714833252232508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.115510389394865</v>
+        <v>8.97937399931563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.609804544079508</v>
+        <v>7.546458789809845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.971358452805042</v>
+        <v>7.002725684010244</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8569524449237516</v>
+        <v>0.8606825940607949</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.440954389837261</v>
+        <v>1.400992680620727</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.344959282688276</v>
+        <v>1.377288159980686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.290497311879757</v>
+        <v>1.272210400143302</v>
       </c>
     </row>
     <row r="19">
